--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_285.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_285.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_243</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1756272401433692</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E', 'B:min', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
+          <t>[['B', 'F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98), (2.64, 7.3)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:21.670589', '0:00:29.925283')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:11.953548', '0:00:18.083616')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1503759398496241</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[('0:00:01.640000', '0:00:23.480000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.480839', '0:00:06.357029')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_150</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1789473684210526</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['G:min', 'C', 'F'], ['C', 'F', 'D:min'], ['Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28), (7.48, 13.84)]</t>
+          <t>[['A:min', 'D', 'G'], ['D', 'G', 'E:min'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(23.98, 27.34), (14.08, 18.4)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:45.474603', '0:00:48.945986'), ('0:00:04.619092', '0:00:08.148526'), ('0:00:15.172562', '0:00:18.678775')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:22.829118', '0:00:26.567531'), ('0:00:56.381952', '0:01:01.374243'), ('0:00:55.151295', '0:01:00.155195')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1324786324786325</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'D', 'E']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1988636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'G', 'A']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(45.912222, 55.966462)]</t>
+          <t>[['C:maj', 'G', 'C/5'], ['G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(59.159206, 64.592675)]</t>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:57.406099', '0:01:02.804739'), ('0:00:59.182426', '0:01:04.464965')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06853146853146853</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(54.06, 58.26)]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(18.9, 23.84)]</t>
+          <t>[('0:00:07.800000', '0:00:13.600000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:47.250000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.82, 8.8), (55.58, 62.32)]</t>
+          <t>[['G', 'C/5', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:07.205000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:04.476575', '0:01:10.099405')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:53.960000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5052631578947369</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(138.8, 145.8)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.727609, 10.72399)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58)]</t>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1717342342342342</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(60.761383, 72.16238)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.91585, 20.672131)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(22.564557, 26.651269), (23.586235, 28.578526)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_124</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.56, 17.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(48.0, 52.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
